--- a/data-raw/pesca_aquic_bioecol.xlsx
+++ b/data-raw/pesca_aquic_bioecol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" firstSheet="13" activeTab="17"/>
+    <workbookView windowWidth="22188" windowHeight="9000" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="1.Isop" sheetId="1" r:id="rId1"/>
@@ -22315,13 +22315,17 @@
   <sheetPr codeName="Planilha27"/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="15.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="12.2222222222222" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:7">
+    <row r="1" ht="22" customHeight="1" spans="1:7">
       <c r="A1" s="18" t="s">
         <v>223</v>
       </c>
@@ -24312,7 +24316,7 @@
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
@@ -25532,7 +25536,7 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B19:B24 B11:B16 B3:B8" numberStoredAsText="1"/>
+    <ignoredError sqref="B3:B8 B11:B16 B19:B24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data-raw/pesca_aquic_bioecol.xlsx
+++ b/data-raw/pesca_aquic_bioecol.xlsx
@@ -838,7 +838,7 @@
     <t>Arrasteiro</t>
   </si>
   <si>
-    <t>Comprimento (x)</t>
+    <t>Comprimento (cm)</t>
   </si>
   <si>
     <t>P1</t>
@@ -853,10 +853,10 @@
     <t>Peso(g)</t>
   </si>
   <si>
-    <t>x'=ln(Peso)</t>
+    <t>ln(Peso)</t>
   </si>
   <si>
-    <t>y'=ln(Comp)</t>
+    <t>ln(Comp)</t>
   </si>
   <si>
     <t>Ac. Linoléico</t>
@@ -22316,7 +22316,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -25536,7 +25536,7 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B3:B8 B11:B16 B19:B24" numberStoredAsText="1"/>
+    <ignoredError sqref="B19:B24 B11:B16 B3:B8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
